--- a/Write Up/charts/genderAge.xlsx
+++ b/Write Up/charts/genderAge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9615" tabRatio="611" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9615" tabRatio="611" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ChartGenderAge" sheetId="2" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="Chart Driving xp" sheetId="6" r:id="rId3"/>
     <sheet name="Games" sheetId="7" r:id="rId4"/>
     <sheet name="Chart Game xp" sheetId="12" r:id="rId5"/>
-    <sheet name="LapTimesSPSS" sheetId="10" r:id="rId6"/>
+    <sheet name="SPSS" sheetId="10" r:id="rId6"/>
     <sheet name="LapTimes" sheetId="8" r:id="rId7"/>
     <sheet name="SPSS Distribution" sheetId="11" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Games!$A$1:$D$28</definedName>
@@ -29,8 +29,8 @@
   <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="2" r:id="rId11"/>
-    <pivotCache cacheId="3" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="103">
   <si>
     <t>UserID</t>
   </si>
@@ -366,6 +366,27 @@
       <t>a</t>
     </r>
   </si>
+  <si>
+    <t>2nd Session</t>
+  </si>
+  <si>
+    <t>3rd Session</t>
+  </si>
+  <si>
+    <t>4th Session</t>
+  </si>
+  <si>
+    <t>Alternative hypothesis</t>
+  </si>
+  <si>
+    <t>Null hypothesis</t>
+  </si>
+  <si>
+    <t>There is no sig differnce</t>
+  </si>
+  <si>
+    <t>There is a sig differnce</t>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +399,7 @@
     <numFmt numFmtId="167" formatCode="####.000"/>
     <numFmt numFmtId="168" formatCode="###0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +444,49 @@
       <color indexed="8"/>
       <name val="Arial Bold"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -432,7 +496,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -987,90 +1051,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1160,9 +1147,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1245,43 +1229,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1299,21 +1256,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1323,33 +1265,206 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_SPSS" xfId="2"/>
     <cellStyle name="Normal_SPSS Distribution" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1414,7 +1529,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1876,7 +1990,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1974,7 +2087,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2058,7 +2170,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2580,7 +2691,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2712,7 +2822,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3150,7 +3259,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3248,7 +3356,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3332,7 +3439,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3455,7 +3561,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3896,7 +4001,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4017,7 +4121,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4092,7 +4195,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13488,48 +13590,6 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="30962" b="4529"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6286500" cy="5019675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -13563,7 +13623,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -17548,7 +17608,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable25" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable25" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="F1:G4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -17661,7 +17721,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable59" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable59" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="N1:O6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -17831,7 +17891,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable46" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable46" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="J1:K4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -17944,7 +18004,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable73" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable73" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G1:J7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -19314,17 +19374,595 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+    </row>
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="87"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="87"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="97">
+        <v>76</v>
+      </c>
+      <c r="D6" s="98">
+        <v>88.473684210526315</v>
+      </c>
+      <c r="E6" s="99">
+        <v>6724</v>
+      </c>
+      <c r="F6" s="87"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="100"/>
+      <c r="B7" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="102">
+        <v>85</v>
+      </c>
+      <c r="D7" s="103">
+        <v>74.317647058823525</v>
+      </c>
+      <c r="E7" s="104">
+        <v>6317</v>
+      </c>
+      <c r="F7" s="87"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="105"/>
+      <c r="B8" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="107">
+        <v>161</v>
+      </c>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="87"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="89"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="113">
+        <v>2662</v>
+      </c>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="115">
+        <v>6317</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="117">
+        <v>-1.9233804281858788</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+    </row>
+    <row r="15" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="119">
+        <v>5.4432290463719314E-2</v>
+      </c>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+    </row>
+    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="87"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="87"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="97">
+        <v>77</v>
+      </c>
+      <c r="D24" s="98">
+        <v>91.701298701298697</v>
+      </c>
+      <c r="E24" s="99">
+        <v>7061</v>
+      </c>
+      <c r="F24" s="87"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="100"/>
+      <c r="B25" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="102">
+        <v>88</v>
+      </c>
+      <c r="D25" s="103">
+        <v>75.38636363636364</v>
+      </c>
+      <c r="E25" s="104">
+        <v>6634</v>
+      </c>
+      <c r="F25" s="87"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="105"/>
+      <c r="B26" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="107">
+        <v>165</v>
+      </c>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="87"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="89"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+    </row>
+    <row r="30" spans="1:6" ht="24.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="113">
+        <v>2718</v>
+      </c>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="115">
+        <v>6634</v>
+      </c>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="117">
+        <v>-2.188394190486314</v>
+      </c>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+    </row>
+    <row r="33" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="119">
+        <v>2.8640901097111815E-2</v>
+      </c>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="120"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+    </row>
+    <row r="37" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="87"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="87"/>
+    </row>
+    <row r="40" spans="1:6" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="91"/>
+      <c r="C40" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="87"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="97">
+        <v>39</v>
+      </c>
+      <c r="D41" s="98">
+        <v>42.666666666666664</v>
+      </c>
+      <c r="E41" s="99">
+        <v>1664</v>
+      </c>
+      <c r="F41" s="87"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="100"/>
+      <c r="B42" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="102">
+        <v>42</v>
+      </c>
+      <c r="D42" s="103">
+        <v>39.452380952380949</v>
+      </c>
+      <c r="E42" s="104">
+        <v>1656.9999999999998</v>
+      </c>
+      <c r="F42" s="87"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="105"/>
+      <c r="B43" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="107">
+        <v>81</v>
+      </c>
+      <c r="D43" s="108"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="87"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="87"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="89"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+    </row>
+    <row r="47" spans="1:6" ht="24.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="113">
+        <v>754</v>
+      </c>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+    </row>
+    <row r="48" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A48" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="115">
+        <v>1657</v>
+      </c>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="121">
+        <v>-0.6143912313499319</v>
+      </c>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+    </row>
+    <row r="50" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="119">
+        <v>0.53895682878323015</v>
+      </c>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="120"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28967,60 +29605,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:E73"/>
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="87"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
@@ -29042,7 +29680,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="75" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -29069,7 +29707,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
@@ -29095,23 +29733,23 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="67"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
       <c r="E9" s="19" t="s">
         <v>38</v>
       </c>
@@ -29121,7 +29759,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="75" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="81" t="s">
@@ -29130,7 +29768,7 @@
       <c r="C10" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="82"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="21" t="s">
         <v>54</v>
       </c>
@@ -29140,9 +29778,9 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="69" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="73" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -29155,9 +29793,9 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="69"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="26" t="s">
         <v>43</v>
       </c>
@@ -29168,12 +29806,12 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="69" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="70"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="27" t="s">
         <v>58</v>
       </c>
@@ -29181,12 +29819,12 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="69" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="70"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="27" t="s">
         <v>59</v>
       </c>
@@ -29194,12 +29832,12 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="69" t="s">
+      <c r="A15" s="80"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="70"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="29">
         <v>243.00891809192547</v>
       </c>
@@ -29207,12 +29845,12 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="69" t="s">
+      <c r="A16" s="80"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="70"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="27" t="s">
         <v>60</v>
       </c>
@@ -29220,12 +29858,12 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="69" t="s">
+      <c r="A17" s="80"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="27" t="s">
         <v>61</v>
       </c>
@@ -29233,12 +29871,12 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="69" t="s">
+      <c r="A18" s="80"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="27" t="s">
         <v>62</v>
       </c>
@@ -29246,12 +29884,12 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="69" t="s">
+      <c r="A19" s="80"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="27" t="s">
         <v>63</v>
       </c>
@@ -29259,12 +29897,12 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="69" t="s">
+      <c r="A20" s="80"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="70"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="27" t="s">
         <v>64</v>
       </c>
@@ -29272,12 +29910,12 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="69" t="s">
+      <c r="A21" s="80"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="70"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="30">
         <v>0.63812376323691233</v>
       </c>
@@ -29287,12 +29925,12 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="70"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="30">
         <v>-0.16655800738509682</v>
       </c>
@@ -29302,14 +29940,14 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="27" t="s">
         <v>65</v>
       </c>
@@ -29319,9 +29957,9 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="69" t="s">
+      <c r="A24" s="80"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="73" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -29334,9 +29972,9 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="69"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="26" t="s">
         <v>43</v>
       </c>
@@ -29347,12 +29985,12 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="69" t="s">
+      <c r="A26" s="80"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="70"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="27" t="s">
         <v>69</v>
       </c>
@@ -29360,12 +29998,12 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="69" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="70"/>
+      <c r="D27" s="74"/>
       <c r="E27" s="27" t="s">
         <v>70</v>
       </c>
@@ -29373,12 +30011,12 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="69" t="s">
+      <c r="A28" s="80"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="70"/>
+      <c r="D28" s="74"/>
       <c r="E28" s="29">
         <v>232.53116012777781</v>
       </c>
@@ -29386,12 +30024,12 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="69" t="s">
+      <c r="A29" s="80"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="70"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="27" t="s">
         <v>71</v>
       </c>
@@ -29399,12 +30037,12 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="69" t="s">
+      <c r="A30" s="80"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="27" t="s">
         <v>72</v>
       </c>
@@ -29412,12 +30050,12 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="69" t="s">
+      <c r="A31" s="80"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="70"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="27" t="s">
         <v>73</v>
       </c>
@@ -29425,12 +30063,12 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="69" t="s">
+      <c r="A32" s="80"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="70"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="27" t="s">
         <v>74</v>
       </c>
@@ -29438,12 +30076,12 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="69" t="s">
+      <c r="A33" s="80"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="70"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="27" t="s">
         <v>75</v>
       </c>
@@ -29451,12 +30089,12 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="69" t="s">
+      <c r="A34" s="80"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="70"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="30">
         <v>0.49678578484986513</v>
       </c>
@@ -29466,54 +30104,54 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71" t="s">
+      <c r="A35" s="76"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="34">
+      <c r="D35" s="85"/>
+      <c r="E35" s="33">
         <v>-0.29010782730343282</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="34">
         <v>0.52867454677316716</v>
       </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="77" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78" t="s">
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="78"/>
-      <c r="H38" s="79"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="75"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="6" t="s">
         <v>38</v>
       </c>
@@ -29535,81 +30173,81 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="75" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="35">
         <v>0.10802420066556029</v>
       </c>
       <c r="D40" s="12">
         <v>70</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="36">
         <v>4.1734781769068183E-2</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="36">
         <v>0.95502773583264366</v>
       </c>
       <c r="G40" s="12">
         <v>70</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="37">
         <v>1.340955402058315E-2</v>
       </c>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="33">
         <v>7.3793984547851021E-2</v>
       </c>
       <c r="D41" s="17">
         <v>81</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="39">
         <v>0.96309545225176518</v>
       </c>
       <c r="G41" s="17">
         <v>81</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H41" s="34">
         <v>1.9684731308735187E-2</v>
       </c>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
       <c r="I43" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -29621,7 +30259,7 @@
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="40" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="5"/>
@@ -29639,24 +30277,24 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="67"/>
+      <c r="B62" s="79"/>
       <c r="C62" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="D62" s="41" t="s">
         <v>86</v>
       </c>
       <c r="E62" s="20" t="s">
@@ -29665,49 +30303,49 @@
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="42" t="s">
         <v>88</v>
       </c>
       <c r="C63" s="10">
         <v>70</v>
       </c>
-      <c r="D63" s="44">
+      <c r="D63" s="43">
         <v>83.292857142857144</v>
       </c>
-      <c r="E63" s="45">
+      <c r="E63" s="44">
         <v>5830.5</v>
       </c>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
-      <c r="B64" s="46" t="s">
+      <c r="A64" s="80"/>
+      <c r="B64" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="47">
+      <c r="C64" s="46">
         <v>81</v>
       </c>
-      <c r="D64" s="48">
+      <c r="D64" s="47">
         <v>69.697530864197532</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="48">
         <v>5645.5</v>
       </c>
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
+      <c r="A65" s="76"/>
       <c r="B65" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C65" s="15">
         <v>151</v>
       </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="51"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="50"/>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -29719,20 +30357,20 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="61"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C68" s="5"/>
@@ -29741,10 +30379,10 @@
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" ht="24.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="54">
+      <c r="B69" s="53">
         <v>2324.5</v>
       </c>
       <c r="C69" s="5"/>
@@ -29753,10 +30391,10 @@
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="55">
         <v>5645.5</v>
       </c>
       <c r="C70" s="5"/>
@@ -29765,10 +30403,10 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="58">
+      <c r="B71" s="57">
         <v>-1.9049054505680487</v>
       </c>
       <c r="C71" s="5"/>
@@ -29777,10 +30415,10 @@
       <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="60">
+      <c r="B72" s="59">
         <v>5.6792362616331672E-2</v>
       </c>
       <c r="C72" s="5"/>
@@ -29789,10 +30427,10 @@
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="63" t="s">
+      <c r="A73" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="63"/>
+      <c r="B73" s="82"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -29800,12 +30438,33 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:F8"/>
@@ -29822,33 +30481,12 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29857,173 +30495,164 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="0.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-    </row>
-    <row r="2" spans="1:5" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="10">
-        <v>70</v>
-      </c>
-      <c r="D3" s="44">
-        <v>83.292857142857144</v>
-      </c>
-      <c r="E3" s="45">
-        <v>5830.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="47">
-        <v>81</v>
-      </c>
-      <c r="D4" s="48">
-        <v>69.697530864197532</v>
-      </c>
-      <c r="E4" s="49">
-        <v>5645.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="15">
-        <v>151</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90" t="s">
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="134"/>
+      <c r="B4" s="132" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="92">
-        <v>2324.5</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
+      <c r="B5" s="113">
+        <v>2662</v>
+      </c>
+      <c r="C5" s="113">
+        <v>2718</v>
+      </c>
+      <c r="D5" s="113">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92">
-        <v>5645.5</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+      <c r="B6" s="115">
+        <v>6317</v>
+      </c>
+      <c r="C6" s="115">
+        <v>6634</v>
+      </c>
+      <c r="D6" s="115">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="93">
-        <v>-1.9049054505680487</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
+      <c r="B7" s="117">
+        <v>-1.9233804281858788</v>
+      </c>
+      <c r="C7" s="117">
+        <v>-2.188394190486314</v>
+      </c>
+      <c r="D7" s="121">
+        <v>-0.6143912313499319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="94">
-        <v>5.6792362616331672E-2</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="B8" s="135">
+        <v>5.4432290463719314E-2</v>
+      </c>
+      <c r="C8" s="136">
+        <v>2.8640901097111815E-2</v>
+      </c>
+      <c r="D8" s="135">
+        <v>0.53895682878323015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="123"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="139"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="128"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A8:B8"/>
+  <mergeCells count="6">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Write Up/charts/genderAge.xlsx
+++ b/Write Up/charts/genderAge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9615" tabRatio="611" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9615" tabRatio="611" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ChartGenderAge" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="SPSS" sheetId="10" r:id="rId6"/>
     <sheet name="LapTimes" sheetId="8" r:id="rId7"/>
     <sheet name="SPSS Distribution" sheetId="11" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId9"/>
+    <sheet name="Mann-Withney Test" sheetId="15" r:id="rId9"/>
     <sheet name="Sheet5" sheetId="20" r:id="rId10"/>
     <sheet name="cartarckchioce" sheetId="21" r:id="rId11"/>
     <sheet name="RealEasy" sheetId="16" r:id="rId12"/>
@@ -36,7 +36,7 @@
     <pivotCache cacheId="0" r:id="rId15"/>
     <pivotCache cacheId="1" r:id="rId16"/>
     <pivotCache cacheId="2" r:id="rId17"/>
-    <pivotCache cacheId="17" r:id="rId18"/>
+    <pivotCache cacheId="3" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="144">
   <si>
     <t>UserID</t>
   </si>
@@ -500,6 +500,21 @@
   </si>
   <si>
     <t>Intrusive</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Straight</t>
+  </si>
+  <si>
+    <t>Corner</t>
+  </si>
+  <si>
+    <t>Raceing Line Distance</t>
   </si>
 </sst>
 </file>
@@ -1449,6 +1464,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1470,43 +1488,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1524,27 +1518,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1553,6 +1526,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2916,7 +2931,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2935,331 +2950,312 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cartarckchioce!$G$4</c:f>
+              <c:f>Sheet5!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Track Choice</c:v>
+                  <c:v>Raceing Line Distance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:explosion val="19"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-822C-4108-916D-7D315BEA0AE2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-822C-4108-916D-7D315BEA0AE2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-822C-4108-916D-7D315BEA0AE2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.7639467261219681E-2"/>
-                  <c:y val="-1.7494896471274508E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-822C-4108-916D-7D315BEA0AE2}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-822C-4108-916D-7D315BEA0AE2}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.7245334921175436E-2"/>
-                  <c:y val="7.4500583260425782E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-822C-4108-916D-7D315BEA0AE2}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>cartarckchioce!$H$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>No</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Not Sure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Sheet5!$A$2:$B$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="13"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Straight</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Corner</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Straight</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Corner</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Straight</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Corner</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Straight</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Corner</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Straight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Corner</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Straight</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Corner</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Straight</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cartarckchioce!$H$4:$J$4</c:f>
+              <c:f>Sheet5!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>196.41238249904299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>197.46481782065101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>199.00178249277499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198.95298523318399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.92196466400199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198.98774145770199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195.39690431664101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.19840219021501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181.25452597139599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>191.70398764566301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134.376019881915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.737858988850107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>161.516465489691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-822C-4108-916D-7D315BEA0AE2}"/>
+              <c16:uniqueId val="{00000000-72B9-481C-B27D-7A338C3D7AAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="441581200"/>
+        <c:axId val="441578288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441581200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441578288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441578288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441581200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3268,38 +3264,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3309,7 +3273,12 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3333,916 +3302,6 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.2499828020496674E-2"/>
-          <c:y val="0.20917249927092446"/>
-          <c:w val="0.82567221972431548"/>
-          <c:h val="0.54691965587634883"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cartarckchioce!$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Car Choice</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:explosion val="15"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B3E2-4290-8149-CB089F6CC0EE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B3E2-4290-8149-CB089F6CC0EE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B3E2-4290-8149-CB089F6CC0EE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.8783902144652934E-3"/>
-                  <c:y val="1.5125036453776696E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-B3E2-4290-8149-CB089F6CC0EE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B3E2-4290-8149-CB089F6CC0EE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3927987809633965E-2"/>
-                  <c:y val="2.552639253426655E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-B3E2-4290-8149-CB089F6CC0EE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>cartarckchioce!$H$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>No</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Not Sure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cartarckchioce!$H$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B3E2-4290-8149-CB089F6CC0EE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10710749988835493"/>
-          <c:y val="0.1996460338291047"/>
-          <c:w val="0.73480460609868015"/>
-          <c:h val="0.53383238553514145"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cartarckchioce!$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Problematic Track Section</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:explosion val="29"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E7C1-4438-BA3C-4363940D86F5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E7C1-4438-BA3C-4363940D86F5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E7C1-4438-BA3C-4363940D86F5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.381146784714864E-2"/>
-                  <c:y val="-2.0214348206474192E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-E7C1-4438-BA3C-4363940D86F5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.563326935039883E-2"/>
-                  <c:y val="1.4659886264216973E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E7C1-4438-BA3C-4363940D86F5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-E7C1-4438-BA3C-4363940D86F5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>cartarckchioce!$H$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>No</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Not Sure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cartarckchioce!$H$8:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E7C1-4438-BA3C-4363940D86F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4477,9 +3536,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-BC63-4078-878D-6E6D3481D4ED}"/>
                 </c:ext>
@@ -4561,9 +3618,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4696,7 +3751,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4931,9 +3986,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-03DA-4339-B40A-CC29733CD406}"/>
                 </c:ext>
@@ -5015,9 +4068,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5150,7 +4201,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5409,9 +4460,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-4D05-4906-A01F-A5604EC22A60}"/>
                 </c:ext>
@@ -5469,9 +4518,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5604,7 +4651,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5685,6 +4732,226 @@
         <c:idx val="0"/>
       </c:pivotFmt>
       <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
@@ -5725,726 +4992,8 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -7239,7 +5788,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7324,6 +5873,182 @@
         <c:idx val="0"/>
       </c:pivotFmt>
       <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
@@ -7364,599 +6089,8 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -8669,7 +6803,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9132,6 +7266,828 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Was feedback intrusive?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feedback!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intrusive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="10"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6C34-477A-9CDE-C60811034AFF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6C34-477A-9CDE-C60811034AFF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8274278215223098E-3"/>
+                  <c:y val="1.7424540682414696E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6C34-477A-9CDE-C60811034AFF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8377077865266841E-3"/>
+                  <c:y val="-6.6360454943132112E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6C34-477A-9CDE-C60811034AFF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feedback!$M$3:$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feedback!$M$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C34-477A-9CDE-C60811034AFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Was feedback intrusive?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feedback!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intrusive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="10"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-31E6-421A-B188-11B23FB6962E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-31E6-421A-B188-11B23FB6962E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8274278215223098E-3"/>
+                  <c:y val="1.7424540682414696E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-31E6-421A-B188-11B23FB6962E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8377077865266841E-3"/>
+                  <c:y val="-6.6360454943132112E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-31E6-421A-B188-11B23FB6962E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feedback!$M$3:$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feedback!$M$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-31E6-421A-B188-11B23FB6962E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -9881,830 +8837,6 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Was feedback intrusive?</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feedback!$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Intrusive</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:explosion val="10"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-6C34-477A-9CDE-C60811034AFF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6C34-477A-9CDE-C60811034AFF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.8274278215223098E-3"/>
-                  <c:y val="1.7424540682414696E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6C34-477A-9CDE-C60811034AFF}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.8377077865266841E-3"/>
-                  <c:y val="-6.6360454943132112E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-6C34-477A-9CDE-C60811034AFF}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feedback!$M$3:$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feedback!$M$4:$N$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6C34-477A-9CDE-C60811034AFF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Was feedback intrusive?</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feedback!$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Intrusive</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:explosion val="10"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-31E6-421A-B188-11B23FB6962E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-31E6-421A-B188-11B23FB6962E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.8274278215223098E-3"/>
-                  <c:y val="1.7424540682414696E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-31E6-421A-B188-11B23FB6962E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.8377077865266841E-3"/>
-                  <c:y val="-6.6360454943132112E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-31E6-421A-B188-11B23FB6962E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feedback!$M$3:$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feedback!$M$4:$N$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-31E6-421A-B188-11B23FB6962E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -14917,10 +13049,13 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -15065,10 +13200,13 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -15102,10 +13240,13 @@
 </file>
 
 <file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -15139,13 +13280,10 @@
 </file>
 
 <file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -15219,43 +13357,6 @@
 </file>
 
 <file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15295,47 +13396,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16657,7 +14718,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -16668,7 +14729,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -16681,7 +14742,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -16698,7 +14759,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -16714,7 +14775,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -16758,20 +14819,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -16780,13 +14841,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -16798,10 +14859,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -16810,17 +14871,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -16924,8 +14984,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -17015,20 +15081,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -17041,17 +15107,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -17083,7 +15138,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -17092,13 +15147,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -17152,8 +15208,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -18665,7 +16727,7 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18771,7 +16833,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -18781,7 +16843,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -18791,7 +16853,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -18811,7 +16873,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -18830,7 +16892,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -19167,7 +17229,7 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -19273,7 +17335,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -19283,7 +17345,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -19293,7 +17355,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -19313,7 +17375,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -19332,7 +17394,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -20171,7 +18233,7 @@
 </file>
 
 <file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -20277,7 +18339,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -20287,7 +18349,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -20297,7 +18359,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -20317,7 +18379,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -20336,7 +18398,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -20673,7 +18735,7 @@
 </file>
 
 <file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -20779,7 +18841,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -20789,7 +18851,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -20799,7 +18861,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -20819,7 +18881,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -20838,7 +18900,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -21341,1010 +19403,6 @@
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -26926,23 +23984,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>3573</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498230</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>49823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7328</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79773</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205153</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>126023</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -26951,70 +24007,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>490904</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>483577</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>490903</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>51287</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31526,6 +28518,119 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable46" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="J1:K4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of UserID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable25" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="F1:G4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -31638,7 +28743,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable59" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="N1:O6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -31808,119 +28913,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable46" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="J1:K4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of UserID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable73" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G1:J7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
@@ -32032,7 +29024,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="N19:R20" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -32079,7 +29071,7 @@
     <dataField name="Screen Setup" fld="9" subtotal="average" baseField="0" baseItem="1"/>
   </dataFields>
   <chartFormats count="5">
-    <chartFormat chart="0" format="5" series="1">
+    <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32088,7 +29080,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32097,7 +29089,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
+    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32106,7 +29098,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
+    <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32115,7 +29107,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
+    <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32135,7 +29127,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="N1:S2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -32186,7 +29178,7 @@
     <dataField name="Overall" fld="11" subtotal="average" baseField="0" baseItem="1"/>
   </dataFields>
   <chartFormats count="6">
-    <chartFormat chart="0" format="6" series="1">
+    <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32195,7 +29187,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32204,7 +29196,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
+    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32213,7 +29205,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
+    <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32222,7 +29214,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
+    <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32231,7 +29223,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
+    <chartFormat chart="0" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -34626,7 +31618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -35208,20 +32200,20 @@
       <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:6" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="62" t="s">
         <v>32</v>
       </c>
@@ -35234,7 +32226,7 @@
       <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="65" t="s">
@@ -35252,7 +32244,7 @@
       <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="69" t="s">
         <v>89</v>
       </c>
@@ -35268,7 +32260,7 @@
       <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="73" t="s">
         <v>31</v>
       </c>
@@ -35288,17 +32280,17 @@
       <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="99"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60"/>
       <c r="F10" s="60"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="106" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="77" t="s">
@@ -35358,10 +32350,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="106"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60"/>
@@ -35394,20 +32386,20 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="101"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="62" t="s">
         <v>32</v>
       </c>
@@ -35420,7 +32412,7 @@
       <c r="F23" s="60"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="103" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="65" t="s">
@@ -35438,7 +32430,7 @@
       <c r="F24" s="60"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="69" t="s">
         <v>89</v>
       </c>
@@ -35454,7 +32446,7 @@
       <c r="F25" s="60"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="104"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="73" t="s">
         <v>31</v>
       </c>
@@ -35474,17 +32466,17 @@
       <c r="F27" s="60"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="99"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="106" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="77" t="s">
@@ -35544,10 +32536,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="106"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="60"/>
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
@@ -35580,20 +32572,20 @@
       <c r="F38" s="60"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
       <c r="F39" s="60"/>
     </row>
     <row r="40" spans="1:6" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="101"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="62" t="s">
         <v>32</v>
       </c>
@@ -35606,7 +32598,7 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="103" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="65" t="s">
@@ -35624,7 +32616,7 @@
       <c r="F41" s="60"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="103"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="69" t="s">
         <v>89</v>
       </c>
@@ -35640,7 +32632,7 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="104"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="73" t="s">
         <v>31</v>
       </c>
@@ -35660,17 +32652,17 @@
       <c r="F44" s="60"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99" t="s">
+      <c r="A45" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="99"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="60"/>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
       <c r="F45" s="60"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="105" t="s">
+      <c r="A46" s="106" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="77" t="s">
@@ -35730,10 +32722,10 @@
       <c r="F50" s="60"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="106"/>
+      <c r="B51" s="99"/>
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
@@ -35741,12 +32733,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:B23"/>
@@ -35759,6 +32745,12 @@
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45404,60 +42396,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="121" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132" t="s">
+      <c r="D3" s="118"/>
+      <c r="E3" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132" t="s">
+      <c r="F3" s="118"/>
+      <c r="G3" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="133"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
@@ -45479,7 +42471,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="122" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -45506,7 +42498,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
@@ -45532,23 +42524,23 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="115"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="19" t="s">
         <v>38</v>
       </c>
@@ -45558,16 +42550,16 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="128"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="21" t="s">
         <v>54</v>
       </c>
@@ -45577,9 +42569,9 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="124" t="s">
+      <c r="A11" s="127"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="120" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -45592,9 +42584,9 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="124"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="26" t="s">
         <v>43</v>
       </c>
@@ -45605,12 +42597,12 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="124" t="s">
+      <c r="A13" s="127"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="125"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="27" t="s">
         <v>58</v>
       </c>
@@ -45618,12 +42610,12 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="124" t="s">
+      <c r="A14" s="127"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="125"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="27" t="s">
         <v>59</v>
       </c>
@@ -45631,12 +42623,12 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="124" t="s">
+      <c r="A15" s="127"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="125"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="29">
         <v>243.00891809192547</v>
       </c>
@@ -45644,12 +42636,12 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="124" t="s">
+      <c r="A16" s="127"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="125"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="27" t="s">
         <v>60</v>
       </c>
@@ -45657,12 +42649,12 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="124" t="s">
+      <c r="A17" s="127"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="125"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="27" t="s">
         <v>61</v>
       </c>
@@ -45670,12 +42662,12 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="124" t="s">
+      <c r="A18" s="127"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="125"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="27" t="s">
         <v>62</v>
       </c>
@@ -45683,12 +42675,12 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="124" t="s">
+      <c r="A19" s="127"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="125"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="27" t="s">
         <v>63</v>
       </c>
@@ -45696,12 +42688,12 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="124" t="s">
+      <c r="A20" s="127"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="125"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="27" t="s">
         <v>64</v>
       </c>
@@ -45709,12 +42701,12 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="124" t="s">
+      <c r="A21" s="127"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="30">
         <v>0.63812376323691233</v>
       </c>
@@ -45724,12 +42716,12 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124" t="s">
+      <c r="A22" s="127"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="125"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="30">
         <v>-0.16655800738509682</v>
       </c>
@@ -45739,14 +42731,14 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="124" t="s">
+      <c r="A23" s="127"/>
+      <c r="B23" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C23" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="125"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="27" t="s">
         <v>65</v>
       </c>
@@ -45756,9 +42748,9 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="124" t="s">
+      <c r="A24" s="127"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="120" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -45771,9 +42763,9 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="124"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="26" t="s">
         <v>43</v>
       </c>
@@ -45784,12 +42776,12 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="124" t="s">
+      <c r="A26" s="127"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="125"/>
+      <c r="D26" s="121"/>
       <c r="E26" s="27" t="s">
         <v>69</v>
       </c>
@@ -45797,12 +42789,12 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="124" t="s">
+      <c r="A27" s="127"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="125"/>
+      <c r="D27" s="121"/>
       <c r="E27" s="27" t="s">
         <v>70</v>
       </c>
@@ -45810,12 +42802,12 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="124" t="s">
+      <c r="A28" s="127"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="125"/>
+      <c r="D28" s="121"/>
       <c r="E28" s="29">
         <v>232.53116012777781</v>
       </c>
@@ -45823,12 +42815,12 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="124" t="s">
+      <c r="A29" s="127"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="125"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="27" t="s">
         <v>71</v>
       </c>
@@ -45836,12 +42828,12 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="124" t="s">
+      <c r="A30" s="127"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="125"/>
+      <c r="D30" s="121"/>
       <c r="E30" s="27" t="s">
         <v>72</v>
       </c>
@@ -45849,12 +42841,12 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="124" t="s">
+      <c r="A31" s="127"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="125"/>
+      <c r="D31" s="121"/>
       <c r="E31" s="27" t="s">
         <v>73</v>
       </c>
@@ -45862,12 +42854,12 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="116"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="124" t="s">
+      <c r="A32" s="127"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="125"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="27" t="s">
         <v>74</v>
       </c>
@@ -45875,12 +42867,12 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="124" t="s">
+      <c r="A33" s="127"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="125"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="27" t="s">
         <v>75</v>
       </c>
@@ -45888,12 +42880,12 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="124" t="s">
+      <c r="A34" s="127"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="125"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="30">
         <v>0.49678578484986513</v>
       </c>
@@ -45903,12 +42895,12 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="113"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107" t="s">
+      <c r="A35" s="123"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="108"/>
+      <c r="D35" s="132"/>
       <c r="E35" s="33">
         <v>-0.29010782730343282</v>
       </c>
@@ -45919,38 +42911,38 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="109" t="s">
+      <c r="A37" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="118"/>
-      <c r="C38" s="121" t="s">
+      <c r="B38" s="109"/>
+      <c r="C38" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122" t="s">
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="122"/>
-      <c r="H38" s="123"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="116"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="119"/>
-      <c r="B39" s="120"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="6" t="s">
         <v>38</v>
       </c>
@@ -45972,7 +42964,7 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="122" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -45999,7 +42991,7 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="113"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="14" t="s">
         <v>36</v>
       </c>
@@ -46024,29 +43016,29 @@
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="111" t="s">
+      <c r="A43" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
       <c r="I43" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -46076,20 +43068,20 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="109" t="s">
+      <c r="A61" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="109"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="26.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="114" t="s">
+      <c r="A62" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="115"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="19" t="s">
         <v>32</v>
       </c>
@@ -46102,7 +43094,7 @@
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="112" t="s">
+      <c r="A63" s="122" t="s">
         <v>34</v>
       </c>
       <c r="B63" s="42" t="s">
@@ -46120,7 +43112,7 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="116"/>
+      <c r="A64" s="127"/>
       <c r="B64" s="45" t="s">
         <v>89</v>
       </c>
@@ -46136,7 +43128,7 @@
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="113"/>
+      <c r="A65" s="123"/>
       <c r="B65" s="14" t="s">
         <v>31</v>
       </c>
@@ -46156,17 +43148,17 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="109" t="s">
+      <c r="A67" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="109"/>
+      <c r="B67" s="107"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="133" t="s">
         <v>25</v>
       </c>
       <c r="B68" s="51" t="s">
@@ -46226,10 +43218,10 @@
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="111"/>
+      <c r="B73" s="129"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -46237,12 +43229,33 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:F8"/>
@@ -46259,33 +43272,12 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -46297,7 +43289,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46460,14 +43452,169 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2">
+        <v>196.41238249904299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3">
+        <v>197.46481782065101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4">
+        <v>199.00178249277499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5">
+        <v>198.95298523318399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6">
+        <v>198.92196466400199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7">
+        <v>198.98774145770199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8">
+        <v>195.39690431664101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9">
+        <v>135.19840219021501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10">
+        <v>181.25452597139599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11">
+        <v>191.70398764566301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12">
+        <v>134.376019881915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13">
+        <v>70.737858988850107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14">
+        <v>161.516465489691</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Write Up/charts/genderAge.xlsx
+++ b/Write Up/charts/genderAge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="611" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="611" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ChartGenderAge" sheetId="2" r:id="rId1"/>
@@ -20,23 +20,24 @@
     <sheet name="SPSS" sheetId="10" r:id="rId6"/>
     <sheet name="LapTimes" sheetId="8" r:id="rId7"/>
     <sheet name="SPSS Distribution" sheetId="11" r:id="rId8"/>
-    <sheet name="Mann-Withney Test" sheetId="15" r:id="rId9"/>
-    <sheet name="Sheet5" sheetId="20" r:id="rId10"/>
-    <sheet name="cartarckchioce" sheetId="21" r:id="rId11"/>
-    <sheet name="RealEasy" sheetId="16" r:id="rId12"/>
-    <sheet name="Sheet12" sheetId="29" r:id="rId13"/>
-    <sheet name="Feedback" sheetId="23" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="30" r:id="rId9"/>
+    <sheet name="Mann-Withney Test" sheetId="15" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="20" r:id="rId11"/>
+    <sheet name="cartarckchioce" sheetId="21" r:id="rId12"/>
+    <sheet name="RealEasy" sheetId="16" r:id="rId13"/>
+    <sheet name="Sheet12" sheetId="29" r:id="rId14"/>
+    <sheet name="Feedback" sheetId="23" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Games!$A$1:$D$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">LapTimes!$A$1:$E$559</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
-    <pivotCache cacheId="1" r:id="rId16"/>
-    <pivotCache cacheId="2" r:id="rId17"/>
-    <pivotCache cacheId="3" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId17"/>
+    <pivotCache cacheId="2" r:id="rId18"/>
+    <pivotCache cacheId="3" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -637,7 +638,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1192,13 +1193,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1292,21 +1386,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1503,31 +1582,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,10 +1609,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1557,29 +1657,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1601,6 +1680,48 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2082,11 +2203,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2137473072"/>
-        <c:axId val="-2127785664"/>
+        <c:axId val="2141660832"/>
+        <c:axId val="2141675792"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-2127785664"/>
+        <c:axId val="2141675792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,12 +2314,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137473072"/>
+        <c:crossAx val="2141660832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137473072"/>
+        <c:axId val="2141660832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127785664"/>
+        <c:crossAx val="2141675792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2716,11 +2837,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-2128473344"/>
-        <c:axId val="-2128476720"/>
+        <c:axId val="2143960944"/>
+        <c:axId val="2143964304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128473344"/>
+        <c:axId val="2143960944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128476720"/>
+        <c:crossAx val="2143964304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2771,7 +2892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128476720"/>
+        <c:axId val="2143964304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128473344"/>
+        <c:crossAx val="2143960944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2836,6 +2957,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2933,7 +3055,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3162,11 +3283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128532560"/>
-        <c:axId val="-2128535632"/>
+        <c:axId val="2142206032"/>
+        <c:axId val="2142212016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128532560"/>
+        <c:axId val="2142206032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3209,7 +3330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128535632"/>
+        <c:crossAx val="2142212016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3217,7 +3338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128535632"/>
+        <c:axId val="2142212016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3268,7 +3389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128532560"/>
+        <c:crossAx val="2142206032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3332,7 +3453,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3543,9 +3663,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-BC63-4078-878D-6E6D3481D4ED}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3577,9 +3695,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-BC63-4078-878D-6E6D3481D4ED}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3700,7 +3816,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3782,7 +3897,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3993,9 +4107,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-03DA-4339-B40A-CC29733CD406}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4027,9 +4139,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-03DA-4339-B40A-CC29733CD406}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4150,7 +4260,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4232,7 +4341,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4443,9 +4551,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4D05-4906-A01F-A5604EC22A60}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4467,9 +4573,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-4D05-4906-A01F-A5604EC22A60}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4600,7 +4704,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4712,7 +4815,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5520,11 +5622,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-2126202128"/>
-        <c:axId val="-2126196544"/>
+        <c:axId val="2143040576"/>
+        <c:axId val="2143046160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126202128"/>
+        <c:axId val="2143040576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5556,7 +5658,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5590,7 +5691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126196544"/>
+        <c:crossAx val="2143046160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5598,7 +5699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126196544"/>
+        <c:axId val="2143046160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -5646,7 +5747,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5707,7 +5807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126202128"/>
+        <c:crossAx val="2143040576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -5722,7 +5822,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5853,7 +5952,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6535,11 +6633,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-2126136000"/>
-        <c:axId val="-2126130576"/>
+        <c:axId val="2143106704"/>
+        <c:axId val="2143112128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126136000"/>
+        <c:axId val="2143106704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6571,7 +6669,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6605,7 +6702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126130576"/>
+        <c:crossAx val="2143112128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6613,7 +6710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126130576"/>
+        <c:axId val="2143112128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -6661,7 +6758,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6722,7 +6818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126136000"/>
+        <c:crossAx val="2143106704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -6737,7 +6833,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6859,7 +6954,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7023,9 +7117,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-31E6-421A-B188-11B23FB6962E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7047,9 +7139,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-31E6-421A-B188-11B23FB6962E}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7163,7 +7253,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7270,7 +7359,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7483,11 +7571,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-2126099424"/>
-        <c:axId val="-2126096160"/>
+        <c:axId val="2121769488"/>
+        <c:axId val="2115123296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126099424"/>
+        <c:axId val="2121769488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7530,7 +7618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126096160"/>
+        <c:crossAx val="2115123296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7538,7 +7626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126096160"/>
+        <c:axId val="2115123296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -7586,7 +7674,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7647,7 +7734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126099424"/>
+        <c:crossAx val="2121769488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -7737,7 +7824,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7901,9 +7987,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-6C34-477A-9CDE-C60811034AFF}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7925,9 +8009,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-6C34-477A-9CDE-C60811034AFF}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8041,7 +8123,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8545,11 +8626,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2137134384"/>
-        <c:axId val="2137151216"/>
+        <c:axId val="2142870512"/>
+        <c:axId val="2142864288"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="2137151216"/>
+        <c:axId val="2142864288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8656,12 +8737,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137134384"/>
+        <c:crossAx val="2142870512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137134384"/>
+        <c:axId val="2142870512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8760,7 +8841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137151216"/>
+        <c:crossAx val="2142864288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9305,11 +9386,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2137046304"/>
-        <c:axId val="2137040448"/>
+        <c:axId val="2122077760"/>
+        <c:axId val="2122083600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137046304"/>
+        <c:axId val="2122077760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9408,7 +9489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137040448"/>
+        <c:crossAx val="2122083600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9416,7 +9497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137040448"/>
+        <c:axId val="2122083600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9523,7 +9604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137046304"/>
+        <c:crossAx val="2122077760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28563,6 +28644,232 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable46" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="J1:K4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of UserID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable25" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="F1:G4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of UserID" fld="0" subtotal="count" baseField="0" baseItem="382657296"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable59" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="N1:O6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -28732,232 +29039,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable25" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="F1:G4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of UserID" fld="0" subtotal="count" baseField="0" baseItem="382657296"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable46" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="J1:K4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of UserID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable73" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G1:J7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
@@ -29069,6 +29150,109 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="N19:R20" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Steering Wheel" fld="6" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Pedals" fld="7" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Seating" fld="8" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Shifter" fld="10" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Screen Setup" fld="9" subtotal="average" baseField="0" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="N1:S2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="12">
@@ -29170,109 +29354,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="N19:R20" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Steering Wheel" fld="6" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Pedals" fld="7" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Seating" fld="8" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Shifter" fld="10" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Screen Setup" fld="9" subtotal="average" baseField="0" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -30015,6 +30096,477 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
@@ -31173,7 +31725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -31189,7 +31741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -32196,7 +32748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -32213,578 +32765,572 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="60"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="62" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="61">
         <v>76</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="62">
         <v>88.473684210526315</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="63">
         <v>6724</v>
       </c>
-      <c r="F6" s="60"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="104"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="65">
         <v>85</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="66">
         <v>74.317647058823525</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="67">
         <v>6317</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="69">
         <v>161</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="60"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6" ht="25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="74">
         <v>2662</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="76">
         <v>6317</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="78">
         <v>-1.9233804281858788</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" ht="37" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="80">
         <v>5.4432290463719314E-2</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="60"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="55"/>
     </row>
     <row r="23" spans="1:6" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="97"/>
+      <c r="C23" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="61">
         <v>77</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="62">
         <v>91.701298701298697</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="63">
         <v>7061</v>
       </c>
-      <c r="F24" s="60"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="99"/>
+      <c r="B25" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="65">
         <v>88</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D25" s="66">
         <v>75.38636363636364</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="67">
         <v>6634</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
-      <c r="B26" s="73" t="s">
+      <c r="A26" s="100"/>
+      <c r="B26" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="69">
         <v>165</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="60"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
     </row>
     <row r="30" spans="1:6" ht="25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="79">
+      <c r="B30" s="74">
         <v>2718</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="81">
+      <c r="B31" s="76">
         <v>6634</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="83">
+      <c r="B32" s="78">
         <v>-2.188394190486314</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
     </row>
     <row r="33" spans="1:6" ht="37" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="85">
+      <c r="B33" s="80">
         <v>2.8640901097111815E-2</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
     </row>
     <row r="34" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="99"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
     </row>
     <row r="37" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
     </row>
     <row r="39" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="60"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:6" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="102"/>
-      <c r="C40" s="62" t="s">
+      <c r="B40" s="97"/>
+      <c r="C40" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="60"/>
+      <c r="F40" s="55"/>
     </row>
     <row r="41" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="66">
+      <c r="C41" s="61">
         <v>39</v>
       </c>
-      <c r="D41" s="67">
+      <c r="D41" s="62">
         <v>42.666666666666664</v>
       </c>
-      <c r="E41" s="68">
+      <c r="E41" s="63">
         <v>1664</v>
       </c>
-      <c r="F41" s="60"/>
+      <c r="F41" s="55"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="104"/>
-      <c r="B42" s="69" t="s">
+      <c r="A42" s="99"/>
+      <c r="B42" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="70">
+      <c r="C42" s="65">
         <v>42</v>
       </c>
-      <c r="D42" s="71">
+      <c r="D42" s="66">
         <v>39.452380952380949</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="67">
         <v>1656.9999999999998</v>
       </c>
-      <c r="F42" s="60"/>
+      <c r="F42" s="55"/>
     </row>
     <row r="43" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="105"/>
-      <c r="B43" s="73" t="s">
+      <c r="A43" s="100"/>
+      <c r="B43" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="74">
+      <c r="C43" s="69">
         <v>81</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="60"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="55"/>
     </row>
     <row r="44" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
     </row>
     <row r="45" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="100"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
     </row>
     <row r="47" spans="1:6" ht="25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="79">
+      <c r="B47" s="74">
         <v>754</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
     </row>
     <row r="48" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="81">
+      <c r="B48" s="76">
         <v>1657</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="86">
+      <c r="B49" s="81">
         <v>-0.6143912313499319</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
     </row>
     <row r="50" spans="1:6" ht="37" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="85">
+      <c r="B50" s="80">
         <v>0.53895682878323015</v>
       </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
     </row>
     <row r="51" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="99"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:B23"/>
@@ -32797,6 +33343,12 @@
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32807,7 +33359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ559"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -42442,60 +42994,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="121"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132" t="s">
+      <c r="D3" s="113"/>
+      <c r="E3" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="133"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
@@ -42517,7 +43069,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="117" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -42544,7 +43096,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
@@ -42570,23 +43122,23 @@
     </row>
     <row r="7" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="113"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="19" t="s">
         <v>38</v>
       </c>
@@ -42596,16 +43148,16 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="128"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="21" t="s">
         <v>54</v>
       </c>
@@ -42615,9 +43167,9 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="114"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="122" t="s">
+      <c r="A11" s="122"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="115" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -42630,9 +43182,9 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="114"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="122"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="26" t="s">
         <v>43</v>
       </c>
@@ -42643,12 +43195,12 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="122" t="s">
+      <c r="A13" s="122"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="123"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="27" t="s">
         <v>58</v>
       </c>
@@ -42656,12 +43208,12 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="114"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="122" t="s">
+      <c r="A14" s="122"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="27" t="s">
         <v>59</v>
       </c>
@@ -42669,12 +43221,12 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="122" t="s">
+      <c r="A15" s="122"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="123"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="29">
         <v>243.00891809192547</v>
       </c>
@@ -42682,12 +43234,12 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="122" t="s">
+      <c r="A16" s="122"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="123"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="27" t="s">
         <v>60</v>
       </c>
@@ -42695,12 +43247,12 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="122" t="s">
+      <c r="A17" s="122"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="123"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="27" t="s">
         <v>61</v>
       </c>
@@ -42708,12 +43260,12 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="114"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="122" t="s">
+      <c r="A18" s="122"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="123"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="27" t="s">
         <v>62</v>
       </c>
@@ -42721,12 +43273,12 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="114"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="122" t="s">
+      <c r="A19" s="122"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="123"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="27" t="s">
         <v>63</v>
       </c>
@@ -42734,12 +43286,12 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="114"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="122" t="s">
+      <c r="A20" s="122"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="123"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="27" t="s">
         <v>64</v>
       </c>
@@ -42747,12 +43299,12 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="114"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="122" t="s">
+      <c r="A21" s="122"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="123"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="30">
         <v>0.63812376323691233</v>
       </c>
@@ -42762,12 +43314,12 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="114"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122" t="s">
+      <c r="A22" s="122"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="30">
         <v>-0.16655800738509682</v>
       </c>
@@ -42777,14 +43329,14 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="122" t="s">
+      <c r="A23" s="122"/>
+      <c r="B23" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="123"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="27" t="s">
         <v>65</v>
       </c>
@@ -42794,9 +43346,9 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="122" t="s">
+      <c r="A24" s="122"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="115" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -42809,9 +43361,9 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="122"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="26" t="s">
         <v>43</v>
       </c>
@@ -42822,12 +43374,12 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="122" t="s">
+      <c r="A26" s="122"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="123"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="27" t="s">
         <v>69</v>
       </c>
@@ -42835,12 +43387,12 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="122" t="s">
+      <c r="A27" s="122"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="123"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="27" t="s">
         <v>70</v>
       </c>
@@ -42848,12 +43400,12 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="122" t="s">
+      <c r="A28" s="122"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="123"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="29">
         <v>232.53116012777781</v>
       </c>
@@ -42861,12 +43413,12 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="114"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="122" t="s">
+      <c r="A29" s="122"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="123"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="27" t="s">
         <v>71</v>
       </c>
@@ -42874,12 +43426,12 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="114"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="122" t="s">
+      <c r="A30" s="122"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="123"/>
+      <c r="D30" s="116"/>
       <c r="E30" s="27" t="s">
         <v>72</v>
       </c>
@@ -42887,12 +43439,12 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="114"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="122" t="s">
+      <c r="A31" s="122"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="123"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="27" t="s">
         <v>73</v>
       </c>
@@ -42900,12 +43452,12 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="114"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="122" t="s">
+      <c r="A32" s="122"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="123"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="27" t="s">
         <v>74</v>
       </c>
@@ -42913,12 +43465,12 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="114"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="122" t="s">
+      <c r="A33" s="122"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="123"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="27" t="s">
         <v>75</v>
       </c>
@@ -42926,12 +43478,12 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="114"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="122" t="s">
+      <c r="A34" s="122"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="123"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="30">
         <v>0.49678578484986513</v>
       </c>
@@ -42941,12 +43493,12 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124" t="s">
+      <c r="A35" s="118"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="125"/>
+      <c r="D35" s="127"/>
       <c r="E35" s="33">
         <v>-0.29010782730343282</v>
       </c>
@@ -42956,135 +43508,135 @@
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="107" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="115" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="119" t="s">
+      <c r="B38" s="138"/>
+      <c r="C38" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120" t="s">
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="120"/>
-      <c r="H38" s="121"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="6" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="138"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="137" t="s">
         <v>79</v>
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="110" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="141">
         <v>0.10802420066556029</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="142">
         <v>70</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="143">
         <v>4.1734781769068183E-2</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="143">
         <v>0.95502773583264366</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="142">
         <v>70</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="148">
         <v>1.340955402058315E-2</v>
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
-      <c r="B41" s="14" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="139"/>
+      <c r="B41" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="144">
         <v>7.3793984547851021E-2</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="145">
         <v>81</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="147">
         <v>0.96309545225176518</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="145">
         <v>81</v>
       </c>
-      <c r="H41" s="34">
+      <c r="H41" s="149">
         <v>1.9684731308735187E-2</v>
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="109" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
       <c r="I43" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -43096,7 +43648,7 @@
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="5"/>
@@ -43114,24 +43666,24 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="107" t="s">
+      <c r="A61" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="113"/>
+      <c r="B62" s="121"/>
       <c r="C62" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="36" t="s">
         <v>86</v>
       </c>
       <c r="E62" s="20" t="s">
@@ -43140,49 +43692,49 @@
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="110" t="s">
+      <c r="A63" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="37" t="s">
         <v>88</v>
       </c>
       <c r="C63" s="10">
         <v>70</v>
       </c>
-      <c r="D63" s="43">
+      <c r="D63" s="38">
         <v>83.292857142857144</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="39">
         <v>5830.5</v>
       </c>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="114"/>
-      <c r="B64" s="45" t="s">
+      <c r="A64" s="122"/>
+      <c r="B64" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="46">
+      <c r="C64" s="41">
         <v>81</v>
       </c>
-      <c r="D64" s="47">
+      <c r="D64" s="42">
         <v>69.697530864197532</v>
       </c>
-      <c r="E64" s="48">
+      <c r="E64" s="43">
         <v>5645.5</v>
       </c>
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="111"/>
+      <c r="A65" s="118"/>
       <c r="B65" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C65" s="15">
         <v>151</v>
       </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="50"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="45"/>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -43194,20 +43746,20 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="107" t="s">
+      <c r="A67" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="107"/>
+      <c r="B67" s="102"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C68" s="5"/>
@@ -43216,10 +43768,10 @@
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" ht="25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="53">
+      <c r="B69" s="48">
         <v>2324.5</v>
       </c>
       <c r="C69" s="5"/>
@@ -43228,10 +43780,10 @@
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="55">
+      <c r="B70" s="50">
         <v>5645.5</v>
       </c>
       <c r="C70" s="5"/>
@@ -43240,10 +43792,10 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="57">
+      <c r="B71" s="52">
         <v>-1.9049054505680487</v>
       </c>
       <c r="C71" s="5"/>
@@ -43252,10 +43804,10 @@
       <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" ht="37" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58" t="s">
+      <c r="A72" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="59">
+      <c r="B72" s="54">
         <v>5.6792362616331672E-2</v>
       </c>
       <c r="C72" s="5"/>
@@ -43264,10 +43816,10 @@
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="109" t="s">
+      <c r="A73" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="109"/>
+      <c r="B73" s="124"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -43275,12 +43827,33 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:F8"/>
@@ -43297,40 +43870,45 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -43350,137 +43928,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="133"/>
+      <c r="B4" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="87" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="74">
         <v>2662</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="74">
         <v>2718</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="74">
         <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="76">
         <v>6317</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="76">
         <v>6634</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="76">
         <v>1657</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="78">
         <v>-1.9233804281858788</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="78">
         <v>-2.188394190486314</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="81">
         <v>-0.6143912313499319</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="93">
+      <c r="B8" s="88">
         <v>5.4432290463719314E-2</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="89">
         <v>2.8640901097111815E-2</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="88">
         <v>0.53895682878323015</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="87"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="82"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="92"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="140"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -43496,7 +44074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -43665,475 +44243,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6">
-        <v>21</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Write Up/charts/genderAge.xlsx
+++ b/Write Up/charts/genderAge.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="611" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="611" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ChartGenderAge" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="147">
   <si>
     <t>UserID</t>
   </si>
@@ -523,6 +523,15 @@
   <si>
     <t>Raceing Line Distance</t>
   </si>
+  <si>
+    <t>Base Group</t>
+  </si>
+  <si>
+    <t>Feedback Group</t>
+  </si>
+  <si>
+    <t>Mann-Whitney U Test</t>
+  </si>
 </sst>
 </file>
 
@@ -535,7 +544,7 @@
     <numFmt numFmtId="167" formatCode="####.000"/>
     <numFmt numFmtId="168" formatCode="###0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +638,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -638,7 +653,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1286,13 +1301,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1526,27 +1604,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1554,6 +1611,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1581,6 +1671,57 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1618,110 +1759,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1791,7 +1905,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2203,11 +2316,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2141660832"/>
-        <c:axId val="2141675792"/>
+        <c:axId val="-2101162736"/>
+        <c:axId val="-2104193264"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="2141675792"/>
+        <c:axId val="-2104193264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2366,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2314,12 +2426,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141660832"/>
+        <c:crossAx val="-2101162736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2141660832"/>
+        <c:axId val="-2101162736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,7 +2463,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2418,7 +2529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141675792"/>
+        <c:crossAx val="-2104193264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2435,7 +2546,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2837,11 +2947,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2143960944"/>
-        <c:axId val="2143964304"/>
+        <c:axId val="-2100596608"/>
+        <c:axId val="-2100593248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143960944"/>
+        <c:axId val="-2100596608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,7 +2994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143964304"/>
+        <c:crossAx val="-2100593248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2892,7 +3002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143964304"/>
+        <c:axId val="-2100593248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2943,7 +3053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143960944"/>
+        <c:crossAx val="-2100596608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3283,11 +3393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142206032"/>
-        <c:axId val="2142212016"/>
+        <c:axId val="-2102055696"/>
+        <c:axId val="-2102052640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142206032"/>
+        <c:axId val="-2102055696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,7 +3440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142212016"/>
+        <c:crossAx val="-2102052640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3338,7 +3448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142212016"/>
+        <c:axId val="-2102052640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3389,7 +3499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142206032"/>
+        <c:crossAx val="-2102055696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5622,11 +5732,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2143040576"/>
-        <c:axId val="2143046160"/>
+        <c:axId val="-2100341792"/>
+        <c:axId val="-2100336208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143040576"/>
+        <c:axId val="-2100341792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5691,7 +5801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143046160"/>
+        <c:crossAx val="-2100336208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5699,7 +5809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143046160"/>
+        <c:axId val="-2100336208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -5807,7 +5917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143040576"/>
+        <c:crossAx val="-2100341792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -6633,11 +6743,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2143106704"/>
-        <c:axId val="2143112128"/>
+        <c:axId val="-2100259408"/>
+        <c:axId val="-2100253984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143106704"/>
+        <c:axId val="-2100259408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6702,7 +6812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143112128"/>
+        <c:crossAx val="-2100253984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6710,7 +6820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143112128"/>
+        <c:axId val="-2100253984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -6818,7 +6928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143106704"/>
+        <c:crossAx val="-2100259408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -7571,11 +7681,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2121769488"/>
-        <c:axId val="2115123296"/>
+        <c:axId val="-2100177120"/>
+        <c:axId val="-2100173856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121769488"/>
+        <c:axId val="-2100177120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7618,7 +7728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115123296"/>
+        <c:crossAx val="-2100173856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7626,7 +7736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115123296"/>
+        <c:axId val="-2100173856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -7734,7 +7844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121769488"/>
+        <c:crossAx val="-2100177120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -8238,7 +8348,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8626,11 +8735,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2142870512"/>
-        <c:axId val="2142864288"/>
+        <c:axId val="-2100936208"/>
+        <c:axId val="-2100942432"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="2142864288"/>
+        <c:axId val="-2100942432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8676,7 +8785,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8737,12 +8845,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142870512"/>
+        <c:crossAx val="-2100936208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2142870512"/>
+        <c:axId val="-2100936208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8774,7 +8882,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8841,7 +8948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142864288"/>
+        <c:crossAx val="-2100942432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8858,7 +8965,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8981,7 +9087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9386,11 +9491,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2122077760"/>
-        <c:axId val="2122083600"/>
+        <c:axId val="-2102182576"/>
+        <c:axId val="-2102176736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122077760"/>
+        <c:axId val="-2102182576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9422,7 +9527,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9489,7 +9593,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122083600"/>
+        <c:crossAx val="-2102176736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9497,7 +9601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122083600"/>
+        <c:axId val="-2102176736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9543,7 +9647,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9604,7 +9707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122077760"/>
+        <c:crossAx val="-2102182576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9618,7 +9721,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9730,7 +9832,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9991,9 +10092,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -10053,7 +10152,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -10188,7 +10286,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10434,9 +10531,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -10496,7 +10591,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -10626,7 +10720,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10956,9 +11049,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11030,7 +11121,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -11165,7 +11255,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11591,9 +11680,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11792,7 +11879,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12203,9 +12289,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -12399,7 +12483,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12930,9 +13013,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -28644,232 +28725,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable46" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="J1:K4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of UserID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable25" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="F1:G4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of UserID" fld="0" subtotal="count" baseField="0" baseItem="382657296"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable59" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="N1:O6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -29039,6 +28894,232 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable25" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="F1:G4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of UserID" fld="0" subtotal="count" baseField="0" baseItem="382657296"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable46" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="J1:K4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of UserID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable73" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G1:J7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
@@ -29150,109 +29231,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="N19:R20" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Steering Wheel" fld="6" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Pedals" fld="7" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Seating" fld="8" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Shifter" fld="10" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="Screen Setup" fld="9" subtotal="average" baseField="0" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="N1:S2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="12">
@@ -29354,6 +29332,109 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="N19:R20" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Steering Wheel" fld="6" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Pedals" fld="7" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Seating" fld="8" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Shifter" fld="10" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Screen Setup" fld="9" subtotal="average" baseField="0" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -32798,20 +32879,20 @@
       <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="57" t="s">
         <v>32</v>
       </c>
@@ -32824,7 +32905,7 @@
       <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="102" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="60" t="s">
@@ -32842,7 +32923,7 @@
       <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="99"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="64" t="s">
         <v>89</v>
       </c>
@@ -32858,7 +32939,7 @@
       <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="68" t="s">
         <v>31</v>
       </c>
@@ -32878,17 +32959,17 @@
       <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="95"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="105" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="72" t="s">
@@ -32948,10 +33029,10 @@
       <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -32984,20 +33065,20 @@
       <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="55"/>
     </row>
     <row r="23" spans="1:6" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="57" t="s">
         <v>32</v>
       </c>
@@ -33010,7 +33091,7 @@
       <c r="F23" s="55"/>
     </row>
     <row r="24" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="102" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="60" t="s">
@@ -33028,7 +33109,7 @@
       <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="99"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="64" t="s">
         <v>89</v>
       </c>
@@ -33044,7 +33125,7 @@
       <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="68" t="s">
         <v>31</v>
       </c>
@@ -33064,17 +33145,17 @@
       <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="95"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
     </row>
     <row r="29" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="105" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="72" t="s">
@@ -33134,10 +33215,10 @@
       <c r="F33" s="55"/>
     </row>
     <row r="34" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="94"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -33170,20 +33251,20 @@
       <c r="F38" s="55"/>
     </row>
     <row r="39" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
       <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:6" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="97"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="57" t="s">
         <v>32</v>
       </c>
@@ -33196,7 +33277,7 @@
       <c r="F40" s="55"/>
     </row>
     <row r="41" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="102" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="60" t="s">
@@ -33214,7 +33295,7 @@
       <c r="F41" s="55"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="99"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="64" t="s">
         <v>89</v>
       </c>
@@ -33230,7 +33311,7 @@
       <c r="F42" s="55"/>
     </row>
     <row r="43" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="100"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="68" t="s">
         <v>31</v>
       </c>
@@ -33250,17 +33331,17 @@
       <c r="F44" s="55"/>
     </row>
     <row r="45" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="95"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="55"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="105" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="72" t="s">
@@ -33320,10 +33401,10 @@
       <c r="F50" s="55"/>
     </row>
     <row r="51" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="94"/>
+      <c r="B51" s="98"/>
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
@@ -33331,6 +33412,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:B23"/>
@@ -33343,12 +33430,6 @@
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42994,60 +43075,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="109" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="111"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="112" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113" t="s">
+      <c r="D3" s="134"/>
+      <c r="E3" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113" t="s">
+      <c r="F3" s="134"/>
+      <c r="G3" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="114"/>
+      <c r="H3" s="135"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
@@ -43069,7 +43150,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="112" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -43096,7 +43177,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
@@ -43122,23 +43203,23 @@
     </row>
     <row r="7" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="19" t="s">
         <v>38</v>
       </c>
@@ -43148,16 +43229,16 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="125"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="21" t="s">
         <v>54</v>
       </c>
@@ -43167,9 +43248,9 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="122"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="115" t="s">
+      <c r="A11" s="113"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="117" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -43182,9 +43263,9 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="122"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="115"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="26" t="s">
         <v>43</v>
       </c>
@@ -43195,12 +43276,12 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="122"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="115" t="s">
+      <c r="A13" s="113"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="116"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="27" t="s">
         <v>58</v>
       </c>
@@ -43208,12 +43289,12 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="122"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="115" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="27" t="s">
         <v>59</v>
       </c>
@@ -43221,12 +43302,12 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="122"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="115" t="s">
+      <c r="A15" s="113"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="118"/>
       <c r="E15" s="29">
         <v>243.00891809192547</v>
       </c>
@@ -43234,12 +43315,12 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="122"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="115" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="27" t="s">
         <v>60</v>
       </c>
@@ -43247,12 +43328,12 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="122"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="115" t="s">
+      <c r="A17" s="113"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="116"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="27" t="s">
         <v>61</v>
       </c>
@@ -43260,12 +43341,12 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="122"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="115" t="s">
+      <c r="A18" s="113"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="116"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="27" t="s">
         <v>62</v>
       </c>
@@ -43273,12 +43354,12 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="122"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="115" t="s">
+      <c r="A19" s="113"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="116"/>
+      <c r="D19" s="118"/>
       <c r="E19" s="27" t="s">
         <v>63</v>
       </c>
@@ -43286,12 +43367,12 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="122"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="115" t="s">
+      <c r="A20" s="113"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="27" t="s">
         <v>64</v>
       </c>
@@ -43299,12 +43380,12 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="122"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="115" t="s">
+      <c r="A21" s="113"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="116"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="30">
         <v>0.63812376323691233</v>
       </c>
@@ -43314,12 +43395,12 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="122"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115" t="s">
+      <c r="A22" s="113"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="116"/>
+      <c r="D22" s="118"/>
       <c r="E22" s="30">
         <v>-0.16655800738509682</v>
       </c>
@@ -43329,14 +43410,14 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="122"/>
-      <c r="B23" s="115" t="s">
+      <c r="A23" s="113"/>
+      <c r="B23" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="116"/>
+      <c r="D23" s="118"/>
       <c r="E23" s="27" t="s">
         <v>65</v>
       </c>
@@ -43346,9 +43427,9 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="122"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="115" t="s">
+      <c r="A24" s="113"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="117" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="23" t="s">
@@ -43361,9 +43442,9 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A25" s="122"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="115"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="26" t="s">
         <v>43</v>
       </c>
@@ -43374,12 +43455,12 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="122"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="115" t="s">
+      <c r="A26" s="113"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="116"/>
+      <c r="D26" s="118"/>
       <c r="E26" s="27" t="s">
         <v>69</v>
       </c>
@@ -43387,12 +43468,12 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="122"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="115" t="s">
+      <c r="A27" s="113"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="116"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="27" t="s">
         <v>70</v>
       </c>
@@ -43400,12 +43481,12 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="122"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="115" t="s">
+      <c r="A28" s="113"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="116"/>
+      <c r="D28" s="118"/>
       <c r="E28" s="29">
         <v>232.53116012777781</v>
       </c>
@@ -43413,12 +43494,12 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="122"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="115" t="s">
+      <c r="A29" s="113"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="116"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="27" t="s">
         <v>71</v>
       </c>
@@ -43426,12 +43507,12 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="122"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="115" t="s">
+      <c r="A30" s="113"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="116"/>
+      <c r="D30" s="118"/>
       <c r="E30" s="27" t="s">
         <v>72</v>
       </c>
@@ -43439,12 +43520,12 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="122"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="115" t="s">
+      <c r="A31" s="113"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="116"/>
+      <c r="D31" s="118"/>
       <c r="E31" s="27" t="s">
         <v>73</v>
       </c>
@@ -43452,12 +43533,12 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="122"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="115" t="s">
+      <c r="A32" s="113"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="116"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="27" t="s">
         <v>74</v>
       </c>
@@ -43465,12 +43546,12 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="122"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="115" t="s">
+      <c r="A33" s="113"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="116"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="27" t="s">
         <v>75</v>
       </c>
@@ -43478,12 +43559,12 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="122"/>
-      <c r="B34" s="124"/>
-      <c r="C34" s="115" t="s">
+      <c r="A34" s="113"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="116"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="30">
         <v>0.49678578484986513</v>
       </c>
@@ -43493,12 +43574,12 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="118"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="126" t="s">
+      <c r="A35" s="114"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="127"/>
+      <c r="D35" s="120"/>
       <c r="E35" s="33">
         <v>-0.29010782730343282</v>
       </c>
@@ -43509,134 +43590,134 @@
     </row>
     <row r="36" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="138" t="s">
+      <c r="A38" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="138"/>
-      <c r="C38" s="136" t="s">
+      <c r="B38" s="115"/>
+      <c r="C38" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136" t="s">
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="138"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="137" t="s">
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="137" t="s">
+      <c r="D39" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="137" t="s">
+      <c r="E39" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="137" t="s">
+      <c r="F39" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="137" t="s">
+      <c r="G39" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="137" t="s">
+      <c r="H39" s="87" t="s">
         <v>79</v>
       </c>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="139" t="s">
+      <c r="A40" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="140" t="s">
+      <c r="B40" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="141">
+      <c r="C40" s="89">
         <v>0.10802420066556029</v>
       </c>
-      <c r="D40" s="142">
+      <c r="D40" s="90">
         <v>70</v>
       </c>
-      <c r="E40" s="143">
+      <c r="E40" s="91">
         <v>4.1734781769068183E-2</v>
       </c>
-      <c r="F40" s="143">
+      <c r="F40" s="91">
         <v>0.95502773583264366</v>
       </c>
-      <c r="G40" s="142">
+      <c r="G40" s="90">
         <v>70</v>
       </c>
-      <c r="H40" s="148">
+      <c r="H40" s="96">
         <v>1.340955402058315E-2</v>
       </c>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="139"/>
-      <c r="B41" s="140" t="s">
+      <c r="A41" s="109"/>
+      <c r="B41" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="144">
+      <c r="C41" s="92">
         <v>7.3793984547851021E-2</v>
       </c>
-      <c r="D41" s="145">
+      <c r="D41" s="93">
         <v>81</v>
       </c>
-      <c r="E41" s="146" t="s">
+      <c r="E41" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="147">
+      <c r="F41" s="95">
         <v>0.96309545225176518</v>
       </c>
-      <c r="G41" s="145">
+      <c r="G41" s="93">
         <v>81</v>
       </c>
-      <c r="H41" s="149">
+      <c r="H41" s="97">
         <v>1.9684731308735187E-2</v>
       </c>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="124" t="s">
+      <c r="A42" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="124" t="s">
+      <c r="A43" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
       <c r="I43" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -43666,20 +43747,20 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="102"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="119" t="s">
+      <c r="A62" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="121"/>
+      <c r="B62" s="111"/>
       <c r="C62" s="19" t="s">
         <v>32</v>
       </c>
@@ -43692,7 +43773,7 @@
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="117" t="s">
+      <c r="A63" s="112" t="s">
         <v>34</v>
       </c>
       <c r="B63" s="37" t="s">
@@ -43710,7 +43791,7 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="122"/>
+      <c r="A64" s="113"/>
       <c r="B64" s="40" t="s">
         <v>89</v>
       </c>
@@ -43726,7 +43807,7 @@
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="118"/>
+      <c r="A65" s="114"/>
       <c r="B65" s="14" t="s">
         <v>31</v>
       </c>
@@ -43746,17 +43827,17 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="102"/>
+      <c r="B67" s="106"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="128" t="s">
+      <c r="A68" s="107" t="s">
         <v>25</v>
       </c>
       <c r="B68" s="46" t="s">
@@ -43816,10 +43897,10 @@
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="124" t="s">
+      <c r="A73" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="124"/>
+      <c r="B73" s="108"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -43827,33 +43908,12 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:F8"/>
@@ -43870,12 +43930,33 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43886,14 +43967,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" customWidth="1"/>
@@ -43901,7 +43984,193 @@
     <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+    </row>
+    <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.2">
+      <c r="A4" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="154"/>
+      <c r="C4" s="146" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="147" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="147" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="143">
+        <v>70</v>
+      </c>
+      <c r="D5" s="144">
+        <v>83.292857142857144</v>
+      </c>
+      <c r="E5" s="144">
+        <v>5830.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="151"/>
+      <c r="B6" s="148" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="143">
+        <v>81</v>
+      </c>
+      <c r="D6" s="144">
+        <v>69.697530864197532</v>
+      </c>
+      <c r="E6" s="144">
+        <v>5645.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="152"/>
+      <c r="B7" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="143">
+        <v>151</v>
+      </c>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="141"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="142" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="139">
+        <v>2324.5</v>
+      </c>
+      <c r="E11" s="139"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="142" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="139">
+        <v>5645.5</v>
+      </c>
+      <c r="E12" s="139"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="142" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="139">
+        <v>-1.9049054505680487</v>
+      </c>
+      <c r="E13" s="139"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="142" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="140">
+        <v>5.6792362616331672E-2</v>
+      </c>
+      <c r="E14" s="140"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="108"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -43912,8 +44181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43928,18 +44197,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="82"/>
       <c r="G1" s="82"/>
       <c r="H1" s="82"/>
     </row>
-    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="82"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
@@ -43949,116 +44218,116 @@
       <c r="G2" s="82"/>
       <c r="H2" s="82"/>
     </row>
-    <row r="3" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133"/>
-      <c r="B4" s="87" t="s">
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="159"/>
+      <c r="B4" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="160" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="155">
         <v>2662</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="155">
         <v>2718</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="155">
         <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="155">
         <v>6317</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="155">
         <v>6634</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="155">
         <v>1657</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="155">
         <v>-1.9233804281858788</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="155">
         <v>-2.188394190486314</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="156">
         <v>-0.6143912313499319</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="157">
         <v>5.4432290463719314E-2</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8" s="158">
         <v>2.8640901097111815E-2</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="157">
         <v>0.53895682878323015</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="135" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="135"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="82"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="85"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="135"/>
-      <c r="B20" s="135"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="82"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="6">
